--- a/ref/FunnelChart/Funnel Tutorial/Funnel/bin/Debug/Book1.xlsx
+++ b/ref/FunnelChart/Funnel Tutorial/Funnel/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" r:id="Rcb2cfa2a6c444959"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" r:id="Rfda4b8a31c304400"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -35,7 +35,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/webextensions/webextension/2010/11">
-              <we:webextensionref xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R648366d6b6c6451d"/>
+              <we:webextensionref xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3abeef3c5a904af7"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -47,7 +47,7 @@
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R1458ff9460894787"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R5c058a38a6e84fcb"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -66,12 +66,12 @@
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4d1b2d1f-77ba-41a2-99d7-3e694075f7f6}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{c615101c-94bf-4aab-aa54-eb98cd597046}">
   <we:reference id="13bd1240-a7dd-48ff-828d-340fa03ae612" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
   <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R1458ff9460894787"/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R5c058a38a6e84fcb"/>
 </we:webextension>
 </file>
 
